--- a/sheet/popkey.xlsx
+++ b/sheet/popkey.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="42">
-  <si>
-    <t>Key</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="44">
+  <si>
+    <t>检索key</t>
   </si>
   <si>
     <t>类名：</t>
@@ -29,6 +29,9 @@
     <t>显示的属性名</t>
   </si>
   <si>
+    <t>是否隐藏</t>
+  </si>
+  <si>
     <t>popup-inputable，0不可，1可</t>
   </si>
   <si>
@@ -39,6 +42,9 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>hide</t>
   </si>
   <si>
     <t>inputable</t>
@@ -148,10 +154,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -170,6 +176,27 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,7 +211,100 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,120 +317,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -321,73 +327,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,109 +501,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,52 +539,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,99 +577,140 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -713,49 +719,49 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1091,21 +1097,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="E1" sqref="E$1:E$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="23.625" customWidth="1"/>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
-    <col min="5" max="5" width="23.5" customWidth="1"/>
-    <col min="6" max="6" width="34.625" customWidth="1"/>
+    <col min="4" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="23.5" customWidth="1"/>
+    <col min="7" max="7" width="34.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1124,215 +1130,254 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:5">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:6">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="str">
         <f>_xlfn.TEXTJOIN("_",,B4:C4)</f>
         <v>Element_name</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" t="str">
         <f>_xlfn.TEXTJOIN("_",,B5:C5)</f>
         <v>Element_visible</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="27" spans="1:5">
+    <row r="6" ht="27" spans="1:6">
       <c r="A6" t="str">
         <f>_xlfn.TEXTJOIN("_",,B6:C6)</f>
         <v>Element_associatedLevelId</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" t="str">
         <f>_xlfn.TEXTJOIN("_",,B7:C7)</f>
         <v>Element_ownerLevelId</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="str">
         <f t="shared" ref="A8:A13" si="0">_xlfn.TEXTJOIN("_",,B8:C8)</f>
         <v>Floor_thickness</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>LevelSwitch_level</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>Level_height</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>ModelLine_horizontal</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>Text_text</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>Wall_width</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3 B3:C3 D3:E3 G3:XFD3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3 B3:C3 D3 E3 F3 H3:XFD3">
       <formula1>"Str,Str.C,Str.S,Int,Ints,Int.C,Int.S,Ints.C,Ints.S,Item,Items,Item.C,Item.S,Items.C,Items.S"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1344,20 +1389,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="25.375" customWidth="1"/>
-    <col min="3" max="4" width="12.875" customWidth="1"/>
-    <col min="5" max="5" width="28.875" customWidth="1"/>
+    <col min="3" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="28.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1376,220 +1421,259 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="str">
         <f t="shared" ref="A4:A13" si="0">_xlfn.TEXTJOIN("_",,B4:C4)</f>
         <v>Element_name</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>Element_visible</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="27" spans="1:5">
+    <row r="6" ht="27" spans="1:6">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>Element_associatedLevelId</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>Element_ownerLevelId</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>Floor_thickness</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>LevelSwitch_level</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>Level_height</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>ModelLine_horizontal</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>Text_text</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>Wall_width</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3 B3:C3 D3:E3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3 B3:C3 D3 E3 F3">
       <formula1>"Str,Str.C,Str.S,Int,Ints,Int.C,Int.S,Ints.C,Ints.S,Item,Items,Item.C,Item.S,Items.C,Items.S"</formula1>
     </dataValidation>
   </dataValidations>
